--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>TaskId</t>
   </si>
@@ -126,9 +126,6 @@
     <t>討伐群雄</t>
   </si>
   <si>
-    <t>民生民惰</t>
-  </si>
-  <si>
     <t>城池產出</t>
   </si>
   <si>
@@ -151,6 +148,120 @@
   </si>
   <si>
     <t>21:15, 03:15</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>民生民情</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>校場訓練</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>七日登入</t>
+  </si>
+  <si>
+    <t>DaqiaoDailyReward</t>
+  </si>
+  <si>
+    <t>OneYearSignIn</t>
+  </si>
+  <si>
+    <t>嘉年華會</t>
+  </si>
+  <si>
+    <t>IndustryShop</t>
+  </si>
+  <si>
+    <t>SLShop</t>
+  </si>
+  <si>
+    <t>勢力市集</t>
+  </si>
+  <si>
+    <t>勢力商店</t>
+  </si>
+  <si>
+    <t>跨服入侵</t>
+  </si>
+  <si>
+    <t>NavalWar</t>
+  </si>
+  <si>
+    <t>LuckyCycle</t>
+  </si>
+  <si>
+    <t>幸運轉盤</t>
+  </si>
+  <si>
+    <t>團購寶箱</t>
+  </si>
+  <si>
+    <t>TuanGou</t>
+  </si>
+  <si>
+    <t>ShuangShiyiActivityReward</t>
+  </si>
+  <si>
+    <t>拆紅包</t>
+  </si>
+  <si>
+    <t>EliteBuyTime</t>
+  </si>
+  <si>
+    <t>購買討伐</t>
+  </si>
+  <si>
+    <t>購買英雄試練</t>
+  </si>
+  <si>
+    <t>TrialsBuyTimes</t>
+  </si>
+  <si>
+    <t>三軍演武獎勵</t>
+  </si>
+  <si>
+    <t>天下比武獎勵</t>
+  </si>
+  <si>
+    <t>ArenaReward</t>
+  </si>
+  <si>
+    <t>ArenasReward</t>
+  </si>
+  <si>
+    <t>周遊天下</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>TrainHero</t>
   </si>
 </sst>
 </file>
@@ -504,21 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="10" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -526,28 +638,40 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -555,98 +679,116 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="str">
         <f>"case TaskId."&amp;B3&amp;":"</f>
         <v>case TaskId.BossWar:</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L15" si="0">"case TaskId."&amp;B4&amp;":"</f>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P19" si="0">"case TaskId."&amp;B4&amp;":"</f>
         <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.CorpsCityReward:</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -654,52 +796,55 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="str">
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.CycleShop:</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
@@ -707,98 +852,125 @@
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="str">
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.EliteFight:</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.FinishTask:</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.Harvest:</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -806,174 +978,419 @@
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="str">
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.Market:</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1">
         <v>30</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.Patrol:</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1">
         <v>30</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.SignIn:</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.OneYearSignIn:</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>case TaskId.SignIn:</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.StarryFight:</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.StarryReward:</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.TrainHero:</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.DaqiaoDailyReward:</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.SLShop:</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
   <si>
     <t>TaskId</t>
   </si>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,23 +676,23 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,8 +1183,15 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>87</v>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>TaskId</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>轉盤抽獎</t>
+  </si>
+  <si>
+    <t>Lottery</t>
   </si>
 </sst>
 </file>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,14 +774,14 @@
       <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="O3" t="str">
@@ -958,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:O26" si="1">"case TaskId."&amp;A8&amp;":"</f>
+        <f t="shared" ref="O8:O27" si="1">"case TaskId."&amp;A8&amp;":"</f>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
@@ -1221,133 +1227,113 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Market:</v>
-      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.NavalWar:</v>
+        <v>case TaskId.Market:</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.OneYearSignIn:</v>
+        <v>case TaskId.NavalWar:</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="1">
-        <v>30</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.Patrol:</v>
+        <v>case TaskId.OneYearSignIn:</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>46</v>
+      </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
       </c>
@@ -1377,130 +1363,134 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.ReadAllEmail:</v>
+        <v>case TaskId.Patrol:</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.ShuangShiyiActivityReward:</v>
+        <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SignIn:</v>
+        <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SLShop:</v>
+        <v>case TaskId.SignIn:</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryFight:</v>
+        <v>case TaskId.SLShop:</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>47</v>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>25</v>
@@ -1525,65 +1515,104 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryReward:</v>
+        <v>case TaskId.StarryFight:</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TrainHero:</v>
+        <v>case TaskId.StarryReward:</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>case TaskId.TrainHero:</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>47</v>
       </c>
     </row>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -425,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -477,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,14 +975,14 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="O9" t="str">

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -312,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,15 +350,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +675,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,10 +746,10 @@
       <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F2" t="s">
@@ -774,14 +767,14 @@
       <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O3" t="str">
@@ -832,14 +825,14 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -878,10 +871,10 @@
       <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -917,14 +910,14 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G7" t="s">
@@ -975,14 +968,14 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O9" t="str">
@@ -1039,14 +1032,14 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1085,10 +1078,10 @@
       <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1124,14 +1117,14 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1167,14 +1160,14 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O14" t="str">
@@ -1189,14 +1182,14 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1232,12 +1225,12 @@
       <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="1"/>
@@ -1255,14 +1248,14 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1334,10 +1327,10 @@
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1373,14 +1366,14 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1464,14 +1457,14 @@
       <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O24" t="str">
@@ -1486,10 +1479,10 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1525,10 +1518,10 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1587,14 +1580,14 @@
       <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" t="s">
+      <c r="C29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1605,14 +1598,14 @@
       <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
   <si>
     <t>TaskId</t>
   </si>
@@ -312,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -358,6 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +682,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1301,9 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.NavalWar:</v>
@@ -1557,8 +1567,11 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
-        <v>79</v>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
@@ -1571,6 +1584,9 @@
       </c>
       <c r="B28" t="s">
         <v>76</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>TaskId</t>
   </si>
@@ -289,12 +289,18 @@
   </si>
   <si>
     <t>Lottery</t>
+  </si>
+  <si>
+    <t>TeamDuplicate</t>
+  </si>
+  <si>
+    <t>皇榜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -477,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -671,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,26 +685,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,9 +759,7 @@
       <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
@@ -964,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:O27" si="1">"case TaskId."&amp;A8&amp;":"</f>
+        <f t="shared" ref="O8:O28" si="1">"case TaskId."&amp;A8&amp;":"</f>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
@@ -1000,10 +1004,10 @@
       <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1298,11 +1302,15 @@
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>79</v>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
@@ -1340,8 +1348,8 @@
       <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>44</v>
+      <c r="F20" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>25</v>
@@ -1562,10 +1570,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
@@ -1573,46 +1581,53 @@
       <c r="F27" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TrainHero:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>case TaskId.TrainHero:</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>51</v>
@@ -1622,6 +1637,24 @@
         <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,23 +688,23 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>TaskId</t>
   </si>
@@ -258,9 +259,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>TrainHero</t>
   </si>
   <si>
@@ -295,6 +293,15 @@
   </si>
   <si>
     <t>皇榜</t>
+  </si>
+  <si>
+    <t>MonthSignIn</t>
+  </si>
+  <si>
+    <t>每日登入</t>
+  </si>
+  <si>
+    <t>＊check</t>
   </si>
 </sst>
 </file>
@@ -318,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +350,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -370,7 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,11 +757,11 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -800,8 +800,15 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -880,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>44</v>
@@ -968,7 +975,7 @@
         <v>51</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:O28" si="1">"case TaskId."&amp;A8&amp;":"</f>
+        <f t="shared" ref="O8:O29" si="1">"case TaskId."&amp;A8&amp;":"</f>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
@@ -1002,7 +1009,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>44</v>
@@ -1081,22 +1088,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
@@ -1204,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2">
         <v>0.23263888888888887</v>
@@ -1231,10 +1238,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1319,80 +1326,61 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.OneYearSignIn:</v>
+        <v>case TaskId.MonthSignIn:</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="1">
-        <v>30</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.Patrol:</v>
+        <v>case TaskId.OneYearSignIn:</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>46</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>44</v>
+      <c r="F21" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>25</v>
@@ -1417,130 +1405,134 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.ReadAllEmail:</v>
+        <v>case TaskId.Patrol:</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.ShuangShiyiActivityReward:</v>
+        <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SignIn:</v>
+        <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SLShop:</v>
+        <v>case TaskId.SignIn:</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryFight:</v>
+        <v>case TaskId.SLShop:</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>47</v>
+      <c r="F26" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>25</v>
@@ -1565,40 +1557,54 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryReward:</v>
+        <v>case TaskId.StarryFight:</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="F27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TeamDuplicate:</v>
+        <v>case TaskId.StarryReward:</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>44</v>
@@ -1606,28 +1612,42 @@
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TrainHero:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>case TaskId.TrainHero:</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>51</v>
@@ -1636,16 +1656,16 @@
       <c r="E30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>47</v>
+      <c r="F30" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>51</v>
@@ -1655,6 +1675,24 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1665,4 +1703,860 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>3500</v>
+      </c>
+      <c r="F6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B6+50</f>
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ref="B8:C25" si="0">B7+50</f>
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <f>F7+600</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F13" si="1">F8+600</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>7600</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>25600</v>
+      </c>
+      <c r="F21">
+        <f>E21-E20</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1300</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1400</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1500</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1600</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1700</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1800</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1900</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2000</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2200</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2300</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2400</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2500</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2600</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2700</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2800</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>B40+1000</f>
+        <v>7000</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" ref="B42:C49" si="2">B41+1000</f>
+        <v>8000</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>19000</v>
+      </c>
+      <c r="C51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>21000</v>
+      </c>
+      <c r="C52">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>23000</v>
+      </c>
+      <c r="C53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>25000</v>
+      </c>
+      <c r="C54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>27000</v>
+      </c>
+      <c r="C55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>29000</v>
+      </c>
+      <c r="C56">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>31000</v>
+      </c>
+      <c r="C57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>33000</v>
+      </c>
+      <c r="C58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>35000</v>
+      </c>
+      <c r="C59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>76000</v>
+      </c>
+      <c r="C61">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>82000</v>
+      </c>
+      <c r="C62">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>88000</v>
+      </c>
+      <c r="C63">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>94000</v>
+      </c>
+      <c r="C64">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>106000</v>
+      </c>
+      <c r="C66">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>112000</v>
+      </c>
+      <c r="C67">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>118000</v>
+      </c>
+      <c r="C68">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>124000</v>
+      </c>
+      <c r="C69">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>130000</v>
+      </c>
+      <c r="C70">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>136000</v>
+      </c>
+      <c r="C71">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>142000</v>
+      </c>
+      <c r="C72">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>148000</v>
+      </c>
+      <c r="C73">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>154000</v>
+      </c>
+      <c r="C74">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>160000</v>
+      </c>
+      <c r="C75">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>166000</v>
+      </c>
+      <c r="C76">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>172000</v>
+      </c>
+      <c r="C77">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>178000</v>
+      </c>
+      <c r="C78">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>184000</v>
+      </c>
+      <c r="C79">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>208000</v>
+      </c>
+      <c r="C81">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>216000</v>
+      </c>
+      <c r="C82">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>224000</v>
+      </c>
+      <c r="C83">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>232000</v>
+      </c>
+      <c r="C84">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>240000</v>
+      </c>
+      <c r="C85">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>248000</v>
+      </c>
+      <c r="C86">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>256000</v>
+      </c>
+      <c r="C87">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>264000</v>
+      </c>
+      <c r="C88">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>272000</v>
+      </c>
+      <c r="C89">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>380000</v>
+      </c>
+      <c r="C91">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>390000</v>
+      </c>
+      <c r="C92">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>400000</v>
+      </c>
+      <c r="C93">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>410000</v>
+      </c>
+      <c r="C94">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>420000</v>
+      </c>
+      <c r="C95">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Exp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="97">
   <si>
     <t>TaskId</t>
   </si>
@@ -302,12 +302,21 @@
   </si>
   <si>
     <t>＊check</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>重新啟動</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -371,6 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -483,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -677,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,26 +701,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -975,7 +991,7 @@
         <v>51</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:O29" si="1">"case TaskId."&amp;A8&amp;":"</f>
+        <f t="shared" ref="O8:O30" si="1">"case TaskId."&amp;A8&amp;":"</f>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
@@ -1453,125 +1469,113 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="D23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.ShuangShiyiActivityReward:</v>
+        <v>case TaskId.Reload:</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SignIn:</v>
+        <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SLShop:</v>
+        <v>case TaskId.SignIn:</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryFight:</v>
+        <v>case TaskId.SLShop:</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>47</v>
+      <c r="F27" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>25</v>
@@ -1596,40 +1600,54 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.StarryReward:</v>
+        <v>case TaskId.StarryFight:</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="F28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TeamDuplicate:</v>
+        <v>case TaskId.StarryReward:</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>44</v>
@@ -1637,35 +1655,42 @@
       <c r="F29" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="O29" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.TrainHero:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>49</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>case TaskId.TrainHero:</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>51</v>
@@ -1674,16 +1699,16 @@
       <c r="E31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>47</v>
+      <c r="F31" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>51</v>
@@ -1693,6 +1718,24 @@
         <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1774,7 +1817,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" ref="B8:C25" si="0">B7+50</f>
+        <f t="shared" ref="B8:B21" si="0">B7+50</f>
         <v>350</v>
       </c>
       <c r="C8">
@@ -2110,7 +2153,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" ref="B42:C49" si="2">B41+1000</f>
+        <f t="shared" ref="B42:B49" si="2">B41+1000</f>
         <v>8000</v>
       </c>
       <c r="C42">

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
   <si>
     <t>TaskId</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>重新啟動</t>
-  </si>
-  <si>
-    <t>HIGH</t>
   </si>
 </sst>
 </file>
@@ -334,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,12 +356,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -386,7 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +694,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,11 +1467,13 @@
       <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
   <si>
     <t>TaskId</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Market</t>
   </si>
   <si>
-    <t>SignIn</t>
-  </si>
-  <si>
     <t>ReadAllEmail</t>
   </si>
   <si>
@@ -308,6 +305,18 @@
   </si>
   <si>
     <t>重新啟動</t>
+  </si>
+  <si>
+    <t>SignIn -&gt; MonthSignIn</t>
+  </si>
+  <si>
+    <t>Pendiing</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>******</t>
   </si>
 </sst>
 </file>
@@ -683,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,1049 +700,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O3" si="0">"case TaskId."&amp;A2&amp;":"</f>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P3" si="0">"case TaskId."&amp;B2&amp;":"</f>
         <v>case TaskId.ArenaReward:</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="str">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="str">
         <f t="shared" si="0"/>
         <v>case TaskId.ArenasReward:</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="str">
-        <f>"case TaskId."&amp;A4&amp;":"</f>
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="str">
+        <f>"case TaskId."&amp;B4&amp;":"</f>
         <v>case TaskId.BossWar:</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" t="str">
-        <f>"case TaskId."&amp;A5&amp;":"</f>
+      <c r="P5" t="str">
+        <f>"case TaskId."&amp;B5&amp;":"</f>
         <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" t="str">
-        <f>"case TaskId."&amp;A6&amp;":"</f>
+      <c r="P6" t="str">
+        <f>"case TaskId."&amp;B6&amp;":"</f>
         <v>case TaskId.CorpsCityReward:</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="str">
-        <f>"case TaskId."&amp;A7&amp;":"</f>
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="str">
+        <f>"case TaskId."&amp;B7&amp;":"</f>
         <v>case TaskId.CycleShop:</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" ref="O8:O30" si="1">"case TaskId."&amp;A8&amp;":"</f>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P30" si="1">"case TaskId."&amp;B8&amp;":"</f>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" t="str">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.EliteBuyTime:</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" t="str">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.EliteFight:</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1">
         <v>30</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.FinishTask:</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="1">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1">
         <v>12</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>60</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.GrassArrow:</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1">
         <v>30</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.Harvest:</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="str">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.IndustryShop:</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="2">
+        <v>43</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2">
         <v>0.23263888888888887</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="1">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1">
         <v>12</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>60</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.LuckyCycle:</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="str">
+        <v>24</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.Market:</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" t="str">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.NavalWar:</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" t="str">
+        <v>43</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.MonthSignIn:</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="O20" t="str">
+      <c r="N20" s="1"/>
+      <c r="P20" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.OneYearSignIn:</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="1">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1">
         <v>30</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1">
         <v>3</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>1</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.Patrol:</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="1">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1">
         <v>30</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1">
         <v>3</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>1</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="O23" t="str">
+      <c r="N23" s="1"/>
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.Reload:</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" t="str">
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" t="str">
+        <v>24</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>case TaskId.SignIn:</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
+        <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" t="str">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.SLShop:</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" t="str">
+        <v>24</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.StarryFight:</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" t="str">
+        <v>24</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.StarryReward:</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="1"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
-      <c r="O29" t="str">
+      <c r="N29" s="1"/>
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="O30" t="str">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.TrainHero:</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:O29">
-    <sortCondition ref="A3:A29"/>
+  <sortState ref="B3:P29">
+    <sortCondition ref="B3:B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,10 @@
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Exp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$33</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
   <si>
     <t>TaskId</t>
   </si>
@@ -214,9 +217,6 @@
     <t>團購寶箱</t>
   </si>
   <si>
-    <t>TuanGou</t>
-  </si>
-  <si>
     <t>ShuangShiyiActivityReward</t>
   </si>
   <si>
@@ -317,12 +317,30 @@
   </si>
   <si>
     <t>******</t>
+  </si>
+  <si>
+    <t>05:15, 09:15, 12:15, 18:15</t>
+  </si>
+  <si>
+    <t>21:05, 03:15</t>
+  </si>
+  <si>
+    <t>Suggested</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>No Harm</t>
+  </si>
+  <si>
+    <t>TuanGouReward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -386,6 +410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,1093 +726,1289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" t="str">
+        <f>"case TaskId."&amp;D2&amp;":"</f>
+        <v>case TaskId.Reload:</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P3" si="0">"case TaskId."&amp;B2&amp;":"</f>
-        <v>case TaskId.ArenaReward:</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="R3" t="str">
+        <f>"case TaskId."&amp;D3&amp;":"</f>
+        <v>case TaskId.MonthSignIn:</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>case TaskId.ArenasReward:</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
+      <c r="M4" s="1">
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="str">
-        <f>"case TaskId."&amp;B4&amp;":"</f>
-        <v>case TaskId.BossWar:</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="str">
+        <f>"case TaskId."&amp;D4&amp;":"</f>
+        <v>case TaskId.Harvest:</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" t="str">
-        <f>"case TaskId."&amp;B5&amp;":"</f>
+      <c r="R5" t="str">
+        <f>"case TaskId."&amp;D5&amp;":"</f>
         <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" t="str">
+        <f>"case TaskId."&amp;D6&amp;":"</f>
+        <v>case TaskId.CorpsCityReward:</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" t="str">
+        <f>"case TaskId."&amp;D7&amp;":"</f>
+        <v>case TaskId.FinishTask:</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>60</v>
+      </c>
+      <c r="R8" t="str">
+        <f>"case TaskId."&amp;D8&amp;":"</f>
+        <v>case TaskId.LuckyCycle:</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" t="str">
+        <f>"case TaskId."&amp;D10&amp;":"</f>
+        <v>case TaskId.ArenasReward:</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="str">
+        <f>"case TaskId."&amp;D12&amp;":"</f>
+        <v>case TaskId.StarryReward:</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="str">
+        <f>"case TaskId."&amp;D13&amp;":"</f>
+        <v>case TaskId.TrainHero:</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"case TaskId."&amp;D14&amp;":"</f>
+        <v>case TaskId.ReadAllEmail:</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" t="str">
+        <f>"case TaskId."&amp;D15&amp;":"</f>
+        <v>case TaskId.EliteBuyTime:</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="R17" t="str">
+        <f>"case TaskId."&amp;D17&amp;":"</f>
+        <v>case TaskId.TeamDuplicate:</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="1">
+        <v>30</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" t="str">
+        <f>"case TaskId."&amp;D18&amp;":"</f>
+        <v>case TaskId.Patrol:</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="str">
+        <f>"case TaskId."&amp;D19&amp;":"</f>
+        <v>case TaskId.EliteFight:</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="R20" t="str">
+        <f>"case TaskId."&amp;D20&amp;":"</f>
+        <v>case TaskId.GrassArrow:</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" t="str">
+        <f>"case TaskId."&amp;D21&amp;":"</f>
+        <v>case TaskId.NavalWar:</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" t="str">
+        <f>"case TaskId."&amp;D23&amp;":"</f>
+        <v>case TaskId.SLShop:</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" t="str">
+        <f>"case TaskId."&amp;D24&amp;":"</f>
+        <v>case TaskId.IndustryShop:</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="str">
+        <f>"case TaskId."&amp;D25&amp;":"</f>
+        <v>case TaskId.Market:</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="str">
+        <f>"case TaskId."&amp;D26&amp;":"</f>
+        <v>case TaskId.BossWar:</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="str">
+        <f>"case TaskId."&amp;D27&amp;":"</f>
+        <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" t="str">
+        <f>"case TaskId."&amp;D28&amp;":"</f>
+        <v>case TaskId.ArenaReward:</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="str">
+        <f>"case TaskId."&amp;D29&amp;":"</f>
+        <v>case TaskId.CycleShop:</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="R30" t="str">
+        <f>"case TaskId."&amp;D30&amp;":"</f>
+        <v>case TaskId.DaqiaoDailyReward:</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="R31" t="str">
+        <f>"case TaskId."&amp;D31&amp;":"</f>
+        <v>case TaskId.OneYearSignIn:</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" t="str">
+        <f>"case TaskId."&amp;D32&amp;":"</f>
+        <v>case TaskId.ShuangShiyiActivityReward:</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" t="str">
-        <f>"case TaskId."&amp;B6&amp;":"</f>
-        <v>case TaskId.CorpsCityReward:</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="str">
-        <f>"case TaskId."&amp;B7&amp;":"</f>
-        <v>case TaskId.CycleShop:</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" ref="P8:P30" si="1">"case TaskId."&amp;B8&amp;":"</f>
-        <v>case TaskId.DaqiaoDailyReward:</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.EliteBuyTime:</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.EliteFight:</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="1">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.FinishTask:</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="1">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1">
-        <v>60</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.GrassArrow:</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="1">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Harvest:</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.IndustryShop:</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.23263888888888887</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1">
-        <v>60</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.LuckyCycle:</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Market:</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.NavalWar:</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.MonthSignIn:</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="P20" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.OneYearSignIn:</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="1">
-        <v>30</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="1">
-        <v>3</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Patrol:</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="1">
-        <v>30</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="1">
-        <v>3</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.ReadAllEmail:</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="P23" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Reload:</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.ShuangShiyiActivityReward:</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.SLShop:</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="J33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="1"/>
+      <c r="O33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="str">
+        <f>"case TaskId."&amp;D33&amp;":"</f>
         <v>case TaskId.StarryFight:</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.StarryReward:</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="P29" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.TeamDuplicate:</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.TrainHero:</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B3:P29">
-    <sortCondition ref="B3:B29"/>
+  <sortState ref="A2:R33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Exp" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="107">
   <si>
     <t>TaskId</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>TuanGouReward</t>
+  </si>
+  <si>
+    <t>FeastHero</t>
+  </si>
+  <si>
+    <t>宴請英雄</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -524,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -726,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +844,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" t="str">
-        <f>"case TaskId."&amp;D2&amp;":"</f>
+        <f t="shared" ref="R2:R9" si="0">"case TaskId."&amp;D2&amp;":"</f>
         <v>case TaskId.Reload:</v>
       </c>
     </row>
@@ -868,13 +877,13 @@
         <v>46</v>
       </c>
       <c r="R3" t="str">
-        <f>"case TaskId."&amp;D3&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.MonthSignIn:</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
@@ -883,13 +892,10 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -898,35 +904,35 @@
       <c r="I4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
       </c>
       <c r="R4" t="str">
-        <f>"case TaskId."&amp;D4&amp;":"</f>
-        <v>case TaskId.Harvest:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.FeastHero:</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -935,10 +941,10 @@
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>50</v>
@@ -972,13 +978,13 @@
         <v>1</v>
       </c>
       <c r="R5" t="str">
-        <f>"case TaskId."&amp;D5&amp;":"</f>
-        <v>case TaskId.CleanUpBag:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.Harvest:</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
@@ -987,13 +993,13 @@
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
@@ -1024,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="R6" t="str">
-        <f>"case TaskId."&amp;D6&amp;":"</f>
-        <v>case TaskId.CorpsCityReward:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
@@ -1039,13 +1045,13 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
@@ -1076,25 +1082,25 @@
         <v>1</v>
       </c>
       <c r="R7" t="str">
-        <f>"case TaskId."&amp;D7&amp;":"</f>
-        <v>case TaskId.FinishTask:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.CorpsCityReward:</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>50</v>
@@ -1107,34 +1113,34 @@
         <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.23263888888888887</v>
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>24</v>
+      <c r="M8" s="1">
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O8" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R8" t="str">
-        <f>"case TaskId."&amp;D8&amp;":"</f>
-        <v>case TaskId.LuckyCycle:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.FinishTask:</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>101</v>
@@ -1143,12 +1149,14 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>43</v>
@@ -1156,17 +1164,35 @@
       <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1">
+        <v>60</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.LuckyCycle:</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -1175,14 +1201,12 @@
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>43</v>
@@ -1190,17 +1214,17 @@
       <c r="I10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" t="str">
-        <f>"case TaskId."&amp;D10&amp;":"</f>
-        <v>case TaskId.ArenasReward:</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -1209,10 +1233,10 @@
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>50</v>
@@ -1224,10 +1248,17 @@
       <c r="I11" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" t="str">
+        <f>"case TaskId."&amp;D11&amp;":"</f>
+        <v>case TaskId.ArenasReward:</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -1236,10 +1267,13 @@
         <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
@@ -1248,121 +1282,96 @@
       <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" t="str">
-        <f>"case TaskId."&amp;D12&amp;":"</f>
-        <v>case TaskId.StarryReward:</v>
-      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>47</v>
+      <c r="I13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R13" t="str">
         <f>"case TaskId."&amp;D13&amp;":"</f>
-        <v>case TaskId.TrainHero:</v>
+        <v>case TaskId.StarryReward:</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="1">
-        <v>30</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
+      <c r="I14" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="R14" t="str">
         <f>"case TaskId."&amp;D14&amp;":"</f>
-        <v>case TaskId.ReadAllEmail:</v>
+        <v>case TaskId.TrainHero:</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>50</v>
@@ -1372,25 +1381,46 @@
         <v>43</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
       </c>
       <c r="R15" t="str">
         <f>"case TaskId."&amp;D15&amp;":"</f>
-        <v>case TaskId.EliteBuyTime:</v>
+        <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>50</v>
@@ -1402,51 +1432,47 @@
       <c r="I16" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="R16" t="str">
+        <f>"case TaskId."&amp;D16&amp;":"</f>
+        <v>case TaskId.EliteBuyTime:</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="R17" t="str">
-        <f>"case TaskId."&amp;D17&amp;":"</f>
-        <v>case TaskId.TeamDuplicate:</v>
+      <c r="I17" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
@@ -1455,47 +1481,30 @@
       <c r="I18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="1">
-        <v>30</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="R18" t="str">
         <f>"case TaskId."&amp;D18&amp;":"</f>
-        <v>case TaskId.Patrol:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -1513,35 +1522,35 @@
       <c r="L19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>24</v>
+      <c r="M19" s="1">
+        <v>30</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
       </c>
       <c r="R19" t="str">
         <f>"case TaskId."&amp;D19&amp;":"</f>
-        <v>case TaskId.EliteFight:</v>
+        <v>case TaskId.Patrol:</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>80</v>
@@ -1550,11 +1559,11 @@
       <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>43</v>
+      <c r="I20" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>24</v>
@@ -1565,60 +1574,81 @@
       <c r="M20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="1">
-        <v>12</v>
-      </c>
-      <c r="P20" s="1">
-        <v>60</v>
+      <c r="N20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R20" t="str">
         <f>"case TaskId."&amp;D20&amp;":"</f>
-        <v>case TaskId.GrassArrow:</v>
+        <v>case TaskId.EliteFight:</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>47</v>
+      <c r="I21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="1">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1">
+        <v>60</v>
       </c>
       <c r="R21" t="str">
         <f>"case TaskId."&amp;D21&amp;":"</f>
-        <v>case TaskId.NavalWar:</v>
+        <v>case TaskId.GrassArrow:</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
@@ -1630,19 +1660,23 @@
       <c r="I22" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="R22" t="str">
+        <f>"case TaskId."&amp;D22&amp;":"</f>
+        <v>case TaskId.NavalWar:</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>50</v>
@@ -1654,23 +1688,19 @@
       <c r="I23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R23" t="str">
-        <f>"case TaskId."&amp;D23&amp;":"</f>
-        <v>case TaskId.SLShop:</v>
-      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>50</v>
@@ -1683,22 +1713,22 @@
         <v>47</v>
       </c>
       <c r="R24" t="str">
-        <f>"case TaskId."&amp;D24&amp;":"</f>
-        <v>case TaskId.IndustryShop:</v>
+        <f t="shared" ref="R24:R34" si="1">"case TaskId."&amp;D24&amp;":"</f>
+        <v>case TaskId.SLShop:</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>50</v>
@@ -1710,47 +1740,23 @@
       <c r="I25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="R25" t="str">
-        <f>"case TaskId."&amp;D25&amp;":"</f>
-        <v>case TaskId.Market:</v>
+        <f t="shared" si="1"/>
+        <v>case TaskId.IndustryShop:</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
+      <c r="A26">
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>50</v>
@@ -1759,174 +1765,208 @@
       <c r="H26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>case TaskId.Market:</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M27" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" t="str">
-        <f>"case TaskId."&amp;D26&amp;":"</f>
+      <c r="N27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.BossWar:</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" t="str">
-        <f>"case TaskId."&amp;D27&amp;":"</f>
+      <c r="O28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>71</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>46</v>
       </c>
-      <c r="R28" t="str">
-        <f>"case TaskId."&amp;D28&amp;":"</f>
+      <c r="R29" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.ArenaReward:</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>25</v>
       </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="5" t="s">
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="K30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" t="str">
-        <f>"case TaskId."&amp;D29&amp;":"</f>
+      <c r="O30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.CycleShop:</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
-      </c>
-      <c r="R30" t="str">
-        <f>"case TaskId."&amp;D30&amp;":"</f>
-        <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
@@ -1934,23 +1974,17 @@
       <c r="G31" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
       <c r="R31" t="str">
-        <f>"case TaskId."&amp;D31&amp;":"</f>
-        <v>case TaskId.OneYearSignIn:</v>
+        <f t="shared" si="1"/>
+        <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
@@ -1958,51 +1992,75 @@
       <c r="G32" t="s">
         <v>95</v>
       </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="R32" t="str">
-        <f>"case TaskId."&amp;D32&amp;":"</f>
+        <f t="shared" si="1"/>
+        <v>case TaskId.OneYearSignIn:</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" t="str">
-        <f>"case TaskId."&amp;D33&amp;":"</f>
+      <c r="O34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="1"/>
         <v>case TaskId.StarryFight:</v>
       </c>
     </row>

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
-    <sheet name="Exp" sheetId="2" r:id="rId2"/>
+    <sheet name="TrainHero" sheetId="2" r:id="rId2"/>
+    <sheet name="Campign" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="127">
   <si>
     <t>TaskId</t>
   </si>
@@ -344,12 +345,72 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>WineHero</t>
+  </si>
+  <si>
+    <t>煮酒論英雄</t>
+  </si>
+  <si>
+    <t>華容道</t>
+  </si>
+  <si>
+    <t>HuarongRoad</t>
+  </si>
+  <si>
+    <t>05:35, 13:35, 3:15</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Campaign.eliteFight</t>
+  </si>
+  <si>
+    <t>campaign.quitCampaign</t>
+  </si>
+  <si>
+    <t>Campaign.getLeftTimes</t>
+  </si>
+  <si>
+    <t>Campaign.getAttFormation</t>
+  </si>
+  <si>
+    <t>Campaign.nextEnemies</t>
+  </si>
+  <si>
+    <t>Campaign.saveFormation</t>
+  </si>
+  <si>
+    <t>Campaign.fightNext</t>
+  </si>
+  <si>
+    <t>quitCampaign</t>
+  </si>
+  <si>
+    <t>Patrol.dealPatroledEvent</t>
+  </si>
+  <si>
+    <t>Travel.viewStep</t>
+  </si>
+  <si>
+    <t>Travel.attack</t>
+  </si>
+  <si>
+    <t>Campaign.quitCampaign</t>
+  </si>
+  <si>
+    <t>Starry.fight</t>
+  </si>
+  <si>
+    <t>Starry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +459,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -411,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -421,6 +488,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -533,7 +602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -727,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,26 +804,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -844,7 +913,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R9" si="0">"case TaskId."&amp;D2&amp;":"</f>
+        <f t="shared" ref="R2:R11" si="0">"case TaskId."&amp;D2&amp;":"</f>
         <v>case TaskId.Reload:</v>
       </c>
     </row>
@@ -941,13 +1010,10 @@
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
@@ -956,30 +1022,26 @@
       <c r="I5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="0"/>
-        <v>case TaskId.Harvest:</v>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -993,23 +1055,20 @@
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>24</v>
@@ -1017,21 +1076,17 @@
       <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="1">
-        <v>30</v>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="0"/>
-        <v>case TaskId.CleanUpBag:</v>
+        <v>111</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1045,13 +1100,13 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
@@ -1083,7 +1138,7 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
-        <v>case TaskId.CorpsCityReward:</v>
+        <v>case TaskId.Harvest:</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1097,10 +1152,10 @@
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>50</v>
@@ -1135,7 +1190,7 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
-        <v>case TaskId.FinishTask:</v>
+        <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1149,13 +1204,13 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
@@ -1165,29 +1220,29 @@
         <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.23263888888888887</v>
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
+      <c r="M9" s="1">
+        <v>30</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
-        <v>case TaskId.LuckyCycle:</v>
+        <v>case TaskId.CorpsCityReward:</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1201,12 +1256,14 @@
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>43</v>
@@ -1214,13 +1271,31 @@
       <c r="I10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>case TaskId.FinishTask:</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1233,10 +1308,10 @@
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>50</v>
@@ -1248,12 +1323,30 @@
       <c r="I11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>99</v>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1">
+        <v>60</v>
       </c>
       <c r="R11" t="str">
-        <f>"case TaskId."&amp;D11&amp;":"</f>
-        <v>case TaskId.ArenasReward:</v>
+        <f t="shared" si="0"/>
+        <v>case TaskId.LuckyCycle:</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1267,14 +1360,12 @@
         <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>43</v>
@@ -1282,6 +1373,13 @@
       <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1294,10 +1392,13 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
@@ -1306,55 +1407,39 @@
       <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="R13" t="str">
         <f>"case TaskId."&amp;D13&amp;":"</f>
-        <v>case TaskId.StarryReward:</v>
+        <v>case TaskId.ArenasReward:</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
       <c r="C14" t="s">
         <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" t="str">
-        <f>"case TaskId."&amp;D14&amp;":"</f>
-        <v>case TaskId.TrainHero:</v>
+      <c r="I14" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1368,20 +1453,17 @@
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>24</v>
@@ -1392,21 +1474,21 @@
       <c r="L15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="1">
-        <v>30</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R15" t="str">
         <f>"case TaskId."&amp;D15&amp;":"</f>
-        <v>case TaskId.ReadAllEmail:</v>
+        <v>case TaskId.StarryReward:</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1417,38 +1499,38 @@
         <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>46</v>
+      <c r="I16" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="R16" t="str">
         <f>"case TaskId."&amp;D16&amp;":"</f>
-        <v>case TaskId.EliteBuyTime:</v>
+        <v>case TaskId.TrainHero:</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>50</v>
@@ -1458,7 +1540,32 @@
         <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="1">
+        <v>30</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" t="str">
+        <f>"case TaskId."&amp;D17&amp;":"</f>
+        <v>case TaskId.ReadAllEmail:</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1469,28 +1576,24 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R18" t="str">
         <f>"case TaskId."&amp;D18&amp;":"</f>
-        <v>case TaskId.TeamDuplicate:</v>
+        <v>case TaskId.EliteBuyTime:</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1501,42 +1604,20 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="1">
-        <v>30</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" t="str">
-        <f>"case TaskId."&amp;D19&amp;":"</f>
-        <v>case TaskId.Patrol:</v>
+      <c r="I19" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1547,13 +1628,10 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
@@ -1562,30 +1640,16 @@
       <c r="I20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="R20" t="str">
         <f>"case TaskId."&amp;D20&amp;":"</f>
-        <v>case TaskId.EliteFight:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1596,23 +1660,20 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>43</v>
+      <c r="I21" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>24</v>
@@ -1620,21 +1681,21 @@
       <c r="L21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>24</v>
+      <c r="M21" s="1">
+        <v>30</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O21" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P21" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R21" t="str">
         <f>"case TaskId."&amp;D21&amp;":"</f>
-        <v>case TaskId.GrassArrow:</v>
+        <v>case TaskId.Patrol:</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1645,13 +1706,13 @@
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
@@ -1660,9 +1721,30 @@
       <c r="I22" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R22" t="str">
         <f>"case TaskId."&amp;D22&amp;":"</f>
-        <v>case TaskId.NavalWar:</v>
+        <v>case TaskId.EliteFight:</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1673,20 +1755,45 @@
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>47</v>
+      <c r="I23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="1">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1">
+        <v>60</v>
+      </c>
+      <c r="R23" t="str">
+        <f>"case TaskId."&amp;D23&amp;":"</f>
+        <v>case TaskId.GrassArrow:</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1697,10 +1804,10 @@
         <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>50</v>
@@ -1713,8 +1820,8 @@
         <v>47</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" ref="R24:R34" si="1">"case TaskId."&amp;D24&amp;":"</f>
-        <v>case TaskId.SLShop:</v>
+        <f>"case TaskId."&amp;D24&amp;":"</f>
+        <v>case TaskId.NavalWar:</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1725,10 +1832,10 @@
         <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>50</v>
@@ -1740,326 +1847,382 @@
       <c r="I25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R25" t="str">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" ref="R26:R36" si="1">"case TaskId."&amp;D26&amp;":"</f>
+        <v>case TaskId.SLShop:</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.IndustryShop:</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" t="str">
+      <c r="O28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.Market:</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M29" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" t="str">
+      <c r="N29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.BossWar:</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
         <v>40</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" t="str">
+      <c r="O30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I31" t="s">
         <v>46</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R31" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.ArenaReward:</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="F32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="K32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" t="str">
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.CycleShop:</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>51</v>
       </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
         <v>95</v>
       </c>
-      <c r="R31" t="str">
+      <c r="R33" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>54</v>
       </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" t="str">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="R34" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.OneYearSignIn:</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
         <v>95</v>
       </c>
-      <c r="R33" t="str">
+      <c r="R35" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="2" t="s">
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" t="str">
+      <c r="O36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" t="str">
         <f t="shared" si="1"/>
         <v>case TaskId.StarryFight:</v>
       </c>
@@ -2078,7 +2241,7 @@
   <dimension ref="B1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,4 +3090,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
-    <sheet name="TrainHero" sheetId="2" r:id="rId2"/>
-    <sheet name="Campign" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="TrainHero" sheetId="2" r:id="rId3"/>
+    <sheet name="Campign" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$P$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
   <si>
     <t>TaskId</t>
   </si>
@@ -405,12 +406,165 @@
   </si>
   <si>
     <t>Starry</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>關羽</t>
+  </si>
+  <si>
+    <t>黃忠</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>龐統</t>
+  </si>
+  <si>
+    <t>陸遜</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>孫策</t>
+  </si>
+  <si>
+    <t>夏候惇</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>魯肅</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>杜</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>諸葛亮</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>司馬懿</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>呂綺玲</t>
+  </si>
+  <si>
+    <t>張遼</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>典偉</t>
+  </si>
+  <si>
+    <t>呂蒙</t>
+  </si>
+  <si>
+    <t>景</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>鐘會</t>
+  </si>
+  <si>
+    <t>呂布</t>
+  </si>
+  <si>
+    <t>文醜</t>
+  </si>
+  <si>
+    <t>夏侯淵</t>
+  </si>
+  <si>
+    <t>龐德</t>
+  </si>
+  <si>
+    <t>黃月英</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>馬超</t>
+  </si>
+  <si>
+    <t>大喬</t>
+  </si>
+  <si>
+    <t>孫尚香</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>趙雲</t>
+  </si>
+  <si>
+    <t>貂蟬</t>
+  </si>
+  <si>
+    <t>張郃</t>
+  </si>
+  <si>
+    <t>華雄</t>
+  </si>
+  <si>
+    <t>賈詡</t>
+  </si>
+  <si>
+    <t>甘寧</t>
+  </si>
+  <si>
+    <t>小喬</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>僇</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>英雄試練</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -478,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -490,6 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,26 +965,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -913,7 +1074,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R11" si="0">"case TaskId."&amp;D2&amp;":"</f>
+        <f>"case TaskId."&amp;D2&amp;":"</f>
         <v>case TaskId.Reload:</v>
       </c>
     </row>
@@ -946,7 +1107,7 @@
         <v>46</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D3&amp;":"</f>
         <v>case TaskId.MonthSignIn:</v>
       </c>
     </row>
@@ -995,7 +1156,7 @@
         <v>106</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D4&amp;":"</f>
         <v>case TaskId.FeastHero:</v>
       </c>
     </row>
@@ -1137,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D7&amp;":"</f>
         <v>case TaskId.Harvest:</v>
       </c>
     </row>
@@ -1189,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D8&amp;":"</f>
         <v>case TaskId.CleanUpBag:</v>
       </c>
     </row>
@@ -1241,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D9&amp;":"</f>
         <v>case TaskId.CorpsCityReward:</v>
       </c>
     </row>
@@ -1293,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D10&amp;":"</f>
         <v>case TaskId.FinishTask:</v>
       </c>
     </row>
@@ -1345,7 +1506,7 @@
         <v>60</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="0"/>
+        <f>"case TaskId."&amp;D11&amp;":"</f>
         <v>case TaskId.LuckyCycle:</v>
       </c>
     </row>
@@ -1417,7 +1578,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
@@ -1426,13 +1587,10 @@
         <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
@@ -1441,10 +1599,35 @@
       <c r="I14" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"case TaskId."&amp;D14&amp;":"</f>
+        <v>case TaskId.StarryReward:</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
@@ -1453,10 +1636,13 @@
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -1465,35 +1651,10 @@
       <c r="I15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" t="str">
-        <f>"case TaskId."&amp;D15&amp;":"</f>
-        <v>case TaskId.StarryReward:</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>101</v>
@@ -1518,7 +1679,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>101</v>
@@ -1628,28 +1789,18 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="R20" t="str">
         <f>"case TaskId."&amp;D20&amp;":"</f>
-        <v>case TaskId.TeamDuplicate:</v>
+        <v>case TaskId.Trials:</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1660,10 +1811,10 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
@@ -1672,30 +1823,16 @@
       <c r="I21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="1">
-        <v>30</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="1">
-        <v>3</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="R21" t="str">
         <f>"case TaskId."&amp;D21&amp;":"</f>
-        <v>case TaskId.Patrol:</v>
+        <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1706,13 +1843,10 @@
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
@@ -1730,21 +1864,21 @@
       <c r="L22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>24</v>
+      <c r="M22" s="1">
+        <v>30</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
       </c>
       <c r="R22" t="str">
         <f>"case TaskId."&amp;D22&amp;":"</f>
-        <v>case TaskId.EliteFight:</v>
+        <v>case TaskId.Patrol:</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1755,10 +1889,10 @@
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
         <v>80</v>
@@ -1767,11 +1901,11 @@
       <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>43</v>
+      <c r="I23" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>24</v>
@@ -1782,18 +1916,18 @@
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="1">
-        <v>12</v>
-      </c>
-      <c r="P23" s="1">
-        <v>60</v>
+      <c r="N23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R23" t="str">
         <f>"case TaskId."&amp;D23&amp;":"</f>
-        <v>case TaskId.GrassArrow:</v>
+        <v>case TaskId.EliteFight:</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1804,24 +1938,45 @@
         <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>47</v>
+      <c r="I24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1">
+        <v>12</v>
+      </c>
+      <c r="P24" s="1">
+        <v>60</v>
       </c>
       <c r="R24" t="str">
         <f>"case TaskId."&amp;D24&amp;":"</f>
-        <v>case TaskId.NavalWar:</v>
+        <v>case TaskId.GrassArrow:</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1832,10 +1987,10 @@
         <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>50</v>
@@ -1847,6 +2002,10 @@
       <c r="I25" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="R25" t="str">
+        <f>"case TaskId."&amp;D25&amp;":"</f>
+        <v>case TaskId.NavalWar:</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1856,10 +2015,10 @@
         <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>50</v>
@@ -1871,10 +2030,6 @@
       <c r="I26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R26" t="str">
-        <f t="shared" ref="R26:R36" si="1">"case TaskId."&amp;D26&amp;":"</f>
-        <v>case TaskId.SLShop:</v>
-      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1884,10 +2039,10 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>50</v>
@@ -1900,22 +2055,22 @@
         <v>47</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.IndustryShop:</v>
+        <f>"case TaskId."&amp;D27&amp;":"</f>
+        <v>case TaskId.SLShop:</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>50</v>
@@ -1927,47 +2082,23 @@
       <c r="I28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="R28" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.Market:</v>
+        <f>"case TaskId."&amp;D28&amp;":"</f>
+        <v>case TaskId.IndustryShop:</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
+      <c r="A29">
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>50</v>
@@ -1977,55 +2108,56 @@
         <v>43</v>
       </c>
       <c r="I29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="str">
+        <f>"case TaskId."&amp;D29&amp;":"</f>
+        <v>case TaskId.CycleShop:</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.BossWar:</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>24</v>
+      <c r="I30" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>24</v>
@@ -2049,44 +2181,68 @@
         <v>24</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
+        <f>"case TaskId."&amp;D30&amp;":"</f>
+        <v>case TaskId.Market:</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.ArenaReward:</v>
+        <f>"case TaskId."&amp;D31&amp;":"</f>
+        <v>case TaskId.StarryFight:</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>50</v>
@@ -2096,82 +2252,110 @@
         <v>43</v>
       </c>
       <c r="I32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="str">
+        <f>"case TaskId."&amp;D32&amp;":"</f>
+        <v>case TaskId.BossWar:</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.CycleShop:</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>95</v>
+      <c r="O33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.DaqiaoDailyReward:</v>
+        <f>"case TaskId."&amp;D33&amp;":"</f>
+        <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
       <c r="R34" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.OneYearSignIn:</v>
+        <f>"case TaskId."&amp;D34&amp;":"</f>
+        <v>case TaskId.ArenaReward:</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>50</v>
@@ -2180,56 +2364,55 @@
         <v>95</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="1"/>
+        <f>"case TaskId."&amp;D35&amp;":"</f>
+        <v>case TaskId.DaqiaoDailyReward:</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" t="str">
+        <f>"case TaskId."&amp;D36&amp;":"</f>
+        <v>case TaskId.OneYearSignIn:</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" t="str">
+        <f>"case TaskId."&amp;D37&amp;":"</f>
         <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="1"/>
-        <v>case TaskId.StarryFight:</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:R33">
-    <sortCondition ref="A2:A33"/>
+  <sortState ref="A2:R36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
@@ -2237,6 +2420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F99"/>
   <sheetViews>
@@ -3092,7 +3474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -3102,9 +3484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="5" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">

--- a/docs/Rules.xlsx
+++ b/docs/Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="181">
   <si>
     <t>TaskId</t>
   </si>
@@ -459,9 +459,6 @@
     <t>曹仁</t>
   </si>
   <si>
-    <t>司馬懿</t>
-  </si>
-  <si>
     <t>徐庶</t>
   </si>
   <si>
@@ -552,13 +549,25 @@
     <t>徐晃</t>
   </si>
   <si>
-    <t>僇</t>
-  </si>
-  <si>
     <t>Trials</t>
   </si>
   <si>
     <t>英雄試練</t>
+  </si>
+  <si>
+    <t>傷</t>
+  </si>
+  <si>
+    <t>孟獲</t>
+  </si>
+  <si>
+    <t>凌純</t>
+  </si>
+  <si>
+    <t>許褚</t>
+  </si>
+  <si>
+    <t>馬雲祿</t>
   </si>
 </sst>
 </file>
@@ -621,7 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -763,7 +772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -967,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1789,17 +1798,17 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="R20" t="str">
-        <f>"case TaskId."&amp;D20&amp;":"</f>
+        <f t="shared" ref="R20:R25" si="0">"case TaskId."&amp;D20&amp;":"</f>
         <v>case TaskId.Trials:</v>
       </c>
     </row>
@@ -1831,7 +1840,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" t="str">
-        <f>"case TaskId."&amp;D21&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.TeamDuplicate:</v>
       </c>
     </row>
@@ -1877,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="str">
-        <f>"case TaskId."&amp;D22&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.Patrol:</v>
       </c>
     </row>
@@ -1926,7 +1935,7 @@
         <v>24</v>
       </c>
       <c r="R23" t="str">
-        <f>"case TaskId."&amp;D23&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.EliteFight:</v>
       </c>
     </row>
@@ -1975,7 +1984,7 @@
         <v>60</v>
       </c>
       <c r="R24" t="str">
-        <f>"case TaskId."&amp;D24&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.GrassArrow:</v>
       </c>
     </row>
@@ -2003,7 +2012,7 @@
         <v>47</v>
       </c>
       <c r="R25" t="str">
-        <f>"case TaskId."&amp;D25&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case TaskId.NavalWar:</v>
       </c>
     </row>
@@ -2055,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="R27" t="str">
-        <f>"case TaskId."&amp;D27&amp;":"</f>
+        <f t="shared" ref="R27:R37" si="1">"case TaskId."&amp;D27&amp;":"</f>
         <v>case TaskId.SLShop:</v>
       </c>
     </row>
@@ -2083,7 +2092,7 @@
         <v>47</v>
       </c>
       <c r="R28" t="str">
-        <f>"case TaskId."&amp;D28&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.IndustryShop:</v>
       </c>
     </row>
@@ -2132,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="R29" t="str">
-        <f>"case TaskId."&amp;D29&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.CycleShop:</v>
       </c>
     </row>
@@ -2181,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="R30" t="str">
-        <f>"case TaskId."&amp;D30&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.Market:</v>
       </c>
     </row>
@@ -2224,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="R31" t="str">
-        <f>"case TaskId."&amp;D31&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.StarryFight:</v>
       </c>
     </row>
@@ -2276,7 +2285,7 @@
         <v>24</v>
       </c>
       <c r="R32" t="str">
-        <f>"case TaskId."&amp;D32&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.BossWar:</v>
       </c>
     </row>
@@ -2324,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="R33" t="str">
-        <f>"case TaskId."&amp;D33&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.SignIn -&gt; MonthSignIn:</v>
       </c>
     </row>
@@ -2346,7 +2355,7 @@
         <v>46</v>
       </c>
       <c r="R34" t="str">
-        <f>"case TaskId."&amp;D34&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.ArenaReward:</v>
       </c>
     </row>
@@ -2364,7 +2373,7 @@
         <v>95</v>
       </c>
       <c r="R35" t="str">
-        <f>"case TaskId."&amp;D35&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.DaqiaoDailyReward:</v>
       </c>
     </row>
@@ -2388,7 +2397,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="R36" t="str">
-        <f>"case TaskId."&amp;D36&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.OneYearSignIn:</v>
       </c>
     </row>
@@ -2406,7 +2415,7 @@
         <v>95</v>
       </c>
       <c r="R37" t="str">
-        <f>"case TaskId."&amp;D37&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case TaskId.ShuangShiyiActivityReward:</v>
       </c>
     </row>
@@ -2421,15 +2430,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>127</v>
       </c>
@@ -2452,165 +2461,301 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" t="s">
         <v>157</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
       <c r="I6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
